--- a/data/trans_bre/EXP_TABACO-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/EXP_TABACO-Estudios-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-21,29%</t>
+          <t>-2,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 2,37</t>
+          <t>-6,7; 6,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 4,14</t>
+          <t>-7,62; 4,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 3,87</t>
+          <t>-20,29; 4,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-54,73; 37,62</t>
+          <t>-47,67; 102,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,05; 42,69</t>
+          <t>-40,98; 40,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-59,14; 19,42</t>
+          <t>-58,06; 22,81</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,78%</t>
+          <t>-9,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 1,0</t>
+          <t>-4,78; 2,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-47,06; 2,13</t>
+          <t>-45,14; 1,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 2,9</t>
+          <t>-7,43; 2,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,96; 6,85</t>
+          <t>-27,63; 14,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,61; 16,98</t>
+          <t>-80,03; 15,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,25; 10,16</t>
+          <t>-23,37; 7,93</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 7,37</t>
+          <t>-3,66; 5,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 4,6</t>
+          <t>-5,03; 5,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 1,7</t>
+          <t>-8,43; 2,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 96,0</t>
+          <t>-28,44; 68,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,5; 50,14</t>
+          <t>-32,73; 59,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-33,68; 9,74</t>
+          <t>-34,64; 11,15</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,22%</t>
+          <t>-6,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 1,12</t>
+          <t>-3,29; 1,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,72; 1,14</t>
+          <t>-41,36; 1,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,17; -0,37</t>
+          <t>-7,19; -0,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,08; 8,94</t>
+          <t>-22,21; 15,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,02; 8,72</t>
+          <t>-76,42; 8,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,2; -1,33</t>
+          <t>-25,46; -1,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/EXP_TABACO-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/EXP_TABACO-Estudios-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-8,2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-13,42</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-0,29</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,27</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-13,42</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-8,2</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-8,59%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-29,95%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-56,53%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>-2,75%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-8,96%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-56,53%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-29,95%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-6,95; 3,74</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-20,29; 4,16</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-18,4; -8,0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-6,7; 6,82</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,62; 4,14</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-18,4; -8,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-20,29; 4,16</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-38,74; 39,13</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-58,06; 22,81</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-68,28; -40,16</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>-47,67; 102,19</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-40,98; 40,6</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-68,28; -40,16</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-58,06; 22,81</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,07</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-2,33</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-1,54</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-15,87</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,33</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>22,73%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-7,86%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-0,48%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>-9,86%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-53,3%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-0,48%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-7,86%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,13; 6,26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-7,43; 2,19</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-3,32; 3,34</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>-4,78; 2,08</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-45,14; 1,87</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,32; 3,34</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,43; 2,19</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-1,74; 52,88</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-23,37; 7,93</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-14,66; 17,22</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>-27,63; 14,87</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-80,03; 15,06</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-14,66; 17,22</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-23,37; 7,93</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-3,01</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,39</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,01</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-14,11%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,46%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>13,55%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,23%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-0,46%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-14,11%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-4,39; 4,95</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-8,43; 2,12</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-3,78; 3,68</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-3,66; 5,61</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,03; 5,31</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,78; 3,68</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,43; 2,12</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-31,08; 58,98</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-34,64; 11,15</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-28,42; 38,06</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>-28,44; 68,07</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-32,73; 59,04</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-28,42; 38,06</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-34,64; 11,15</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-3,73</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-0,85</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-10,87</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,55</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-3,73</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>13,39%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-14,07%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-13,36%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>-6,26%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-44,92%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-13,36%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-14,07%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-0,81; 4,02</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-7,19; -0,25</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-4,81; -0,23</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-3,29; 1,88</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-41,36; 1,06</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,81; -0,23</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-7,19; -0,25</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>-5,67; 34,74</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-25,46; -1,03</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-23,55; -1,33</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>-22,21; 15,61</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-76,42; 8,23</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-23,55; -1,33</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-25,46; -1,03</t>
         </is>
       </c>
     </row>
